--- a/Daily Attandance record/16 June/23June.xlsx
+++ b/Daily Attandance record/16 June/23June.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\16 June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1259D053-47A5-4BF9-BB6B-74E60AFDEE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C020365-227C-4587-8F90-CF1766E80CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1118,12 +1118,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1136,6 +1130,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1151,19 +1151,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7204AF34-645E-432D-97E3-BB35255A3ADB}" name="Table1" displayName="Table1" ref="A1:F180" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:F180" xr:uid="{7204AF34-645E-432D-97E3-BB35255A3ADB}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7204AF34-645E-432D-97E3-BB35255A3ADB}" name="Table1" displayName="Table1" ref="A1:F180" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3A553F1B-D05C-4AE5-B0F3-B74D044993F4}" name="SN" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{27A98421-AE6B-49E4-94E9-D5FA9976BF75}" name="Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{780DDC49-BBE4-4842-873A-34E8285D3A09}" name="Position" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{7E933B3B-0718-42CF-9597-DA3E9836678D}" name="ID" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3A553F1B-D05C-4AE5-B0F3-B74D044993F4}" name="SN" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{27A98421-AE6B-49E4-94E9-D5FA9976BF75}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{780DDC49-BBE4-4842-873A-34E8285D3A09}" name="Position" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7E933B3B-0718-42CF-9597-DA3E9836678D}" name="ID" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{2F93BE91-6FD1-4403-9473-A8ACC256AFD6}" name="Biometric ID" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{E72DB74D-65A3-4909-9A0F-387C5C2863C5}" name="Attendance" dataDxfId="0"/>
   </tableColumns>
@@ -1499,7 +1492,7 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.296875" bestFit="1" customWidth="1"/>
@@ -1509,7 +1502,7 @@
     <col min="6" max="6" width="10.59765625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1549,7 +1542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1569,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1589,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1609,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1629,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1649,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1669,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1689,7 +1682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1709,7 +1702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1729,7 +1722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1749,7 +1742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1769,7 +1762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1789,7 +1782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1809,7 +1802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1829,7 +1822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1849,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1869,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1889,7 +1882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1909,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1929,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1949,7 +1942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1969,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1989,7 +1982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2009,7 +2002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2029,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2049,7 +2042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2069,7 +2062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2089,7 +2082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2109,7 +2102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2129,7 +2122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2149,7 +2142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2169,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2189,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2209,7 +2202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2229,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2249,7 +2242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2269,7 +2262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2289,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2309,7 +2302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2329,7 +2322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2349,7 +2342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2369,7 +2362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2389,7 +2382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2409,7 +2402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2429,7 +2422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2449,7 +2442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2469,7 +2462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2489,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2509,7 +2502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2529,7 +2522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2549,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2569,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2589,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2609,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2629,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2649,7 +2642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2669,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2689,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2709,7 +2702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2729,7 +2722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2749,7 +2742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2769,7 +2762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2789,7 +2782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2809,7 +2802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2829,7 +2822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2849,7 +2842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2869,7 +2862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2889,7 +2882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2909,7 +2902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2929,7 +2922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2949,7 +2942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2969,7 +2962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2989,7 +2982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3009,7 +3002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3029,7 +3022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3049,7 +3042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3069,7 +3062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3089,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3109,7 +3102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3129,7 +3122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3149,7 +3142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3169,7 +3162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3189,7 +3182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3209,7 +3202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3229,7 +3222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3249,7 +3242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3269,7 +3262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3289,7 +3282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3309,7 +3302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3329,7 +3322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3349,7 +3342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3369,7 +3362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3389,7 +3382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3409,7 +3402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3429,7 +3422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3449,7 +3442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3469,7 +3462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3489,7 +3482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3509,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3529,7 +3522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3549,7 +3542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3569,7 +3562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3589,7 +3582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3609,7 +3602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3629,7 +3622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3649,7 +3642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3669,7 +3662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3689,7 +3682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3709,7 +3702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3729,7 +3722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3749,7 +3742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3769,7 +3762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3789,7 +3782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3809,7 +3802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3829,7 +3822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3849,7 +3842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3869,7 +3862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3889,7 +3882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3909,7 +3902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3929,7 +3922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3949,7 +3942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3969,7 +3962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3989,7 +3982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4009,7 +4002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4029,7 +4022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4049,7 +4042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4069,7 +4062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4089,7 +4082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4109,7 +4102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4129,7 +4122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4149,7 +4142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4169,7 +4162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4189,7 +4182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4209,7 +4202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4229,7 +4222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4249,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4269,7 +4262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4289,7 +4282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4309,7 +4302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4329,7 +4322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4349,7 +4342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4369,7 +4362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4389,7 +4382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4409,7 +4402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4429,7 +4422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4449,7 +4442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4469,7 +4462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4489,7 +4482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4509,7 +4502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4529,7 +4522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4549,7 +4542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4569,7 +4562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4589,7 +4582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4609,7 +4602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4629,7 +4622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4649,7 +4642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4669,7 +4662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4689,7 +4682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4709,7 +4702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4729,7 +4722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4749,7 +4742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4769,7 +4762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4789,7 +4782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4809,7 +4802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4829,7 +4822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4849,7 +4842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4869,7 +4862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4889,7 +4882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4909,7 +4902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4929,7 +4922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4949,7 +4942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4969,7 +4962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5001,8 +4994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990B1D07-EC55-4DE2-A61B-6A6F7882978B}">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5035,7 +5028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5055,7 +5048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5075,7 +5068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5095,7 +5088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5115,7 +5108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5135,7 +5128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5155,7 +5148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5175,7 +5168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5195,7 +5188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5215,7 +5208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5235,7 +5228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5255,7 +5248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5275,7 +5268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5295,7 +5288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5315,7 +5308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5355,7 +5348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5375,7 +5368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5395,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5415,7 +5408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5435,7 +5428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5455,7 +5448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5475,7 +5468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5495,7 +5488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5515,7 +5508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5535,7 +5528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -5555,7 +5548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -5575,7 +5568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -5595,7 +5588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5615,7 +5608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5635,7 +5628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5655,7 +5648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5675,7 +5668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5695,7 +5688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5715,7 +5708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5735,7 +5728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5755,7 +5748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5775,7 +5768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5795,7 +5788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5815,7 +5808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5835,7 +5828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5855,7 +5848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5875,7 +5868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5895,7 +5888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5915,7 +5908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5935,7 +5928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5955,7 +5948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5975,7 +5968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -5995,7 +5988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6015,7 +6008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6035,7 +6028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6055,7 +6048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6075,7 +6068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6095,7 +6088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6115,7 +6108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6135,7 +6128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6155,7 +6148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6175,7 +6168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6195,7 +6188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6215,7 +6208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6235,7 +6228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6255,7 +6248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6275,7 +6268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6295,7 +6288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6315,7 +6308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6335,7 +6328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6355,7 +6348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6375,7 +6368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6395,7 +6388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6415,7 +6408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6435,7 +6428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6455,7 +6448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -6475,7 +6468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -6495,7 +6488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6515,7 +6508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -6535,7 +6528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -6555,7 +6548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -6575,7 +6568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -6595,7 +6588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -6615,7 +6608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -6635,7 +6628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -6655,7 +6648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -6675,7 +6668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -6695,7 +6688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -6715,7 +6708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -6735,7 +6728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -6755,7 +6748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -6775,7 +6768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -6795,7 +6788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -6815,7 +6808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -6835,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -6855,7 +6848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -6875,7 +6868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -6895,7 +6888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -6915,7 +6908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -6935,7 +6928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -6955,7 +6948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -6975,7 +6968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -6995,7 +6988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -7015,7 +7008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -7035,7 +7028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -7055,7 +7048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -7075,7 +7068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -7115,7 +7108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -7135,7 +7128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -7155,7 +7148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -7175,7 +7168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -7195,7 +7188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -7215,7 +7208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -7235,7 +7228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -7255,7 +7248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -7275,7 +7268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -7295,7 +7288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -7315,7 +7308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -7335,7 +7328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -7355,7 +7348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -7375,7 +7368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -7395,7 +7388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -7415,7 +7408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -7435,7 +7428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -7455,7 +7448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -7475,7 +7468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7495,7 +7488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7515,7 +7508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7535,7 +7528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7555,7 +7548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7575,7 +7568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7595,7 +7588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7615,7 +7608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7635,7 +7628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7655,7 +7648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -7675,7 +7668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7695,7 +7688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7715,7 +7708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -7735,7 +7728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7755,7 +7748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -7775,7 +7768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -7795,7 +7788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -7815,7 +7808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -7835,7 +7828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -7855,7 +7848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -7875,7 +7868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -7895,7 +7888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -7915,7 +7908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -7935,7 +7928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -7975,7 +7968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -7995,7 +7988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -8015,7 +8008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -8035,7 +8028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -8055,7 +8048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -8075,7 +8068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -8095,7 +8088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -8115,7 +8108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -8135,7 +8128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -8155,7 +8148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8175,7 +8168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8195,7 +8188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -8215,7 +8208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -8235,7 +8228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8255,7 +8248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8275,7 +8268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -8295,7 +8288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -8315,7 +8308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -8335,7 +8328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -8355,7 +8348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -8375,7 +8368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -8415,7 +8408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -8435,7 +8428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -8455,7 +8448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -8475,7 +8468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -8495,7 +8488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -8515,7 +8508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -8535,7 +8528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -8555,7 +8548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -8575,7 +8568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -8595,7 +8588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>179</v>
       </c>
